--- a/DATA RUANGKU.xlsx
+++ b/DATA RUANGKU.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i16049\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gio\Desktop\mibd2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="125">
   <si>
     <t>NAMA RUANGAN</t>
   </si>
@@ -212,23 +212,211 @@
     <t>AC, Projector</t>
   </si>
   <si>
-    <t>AC, Projector, Free Drinks and Snack</t>
-  </si>
-  <si>
     <t>AC, Snack and Drink, Projector, Tv</t>
   </si>
   <si>
     <t>Business Room</t>
+  </si>
+  <si>
+    <t>ID Pelanggan</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>No. Handphone</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Ruangan</t>
+  </si>
+  <si>
+    <t>Tanggal Transaksi</t>
+  </si>
+  <si>
+    <t>Durasi</t>
+  </si>
+  <si>
+    <t>Total Transaksi</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Shafira</t>
+  </si>
+  <si>
+    <t>Jl. Rancabentang 1 No 10A</t>
+  </si>
+  <si>
+    <t>2 Jam</t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>fyrakaire@gmail.com</t>
+  </si>
+  <si>
+    <t>giogioanggasta@gmail.com</t>
+  </si>
+  <si>
+    <t>Jl. Rancabentang 1 No 10D</t>
+  </si>
+  <si>
+    <t>Glass Room (Large</t>
+  </si>
+  <si>
+    <t>3 Jam</t>
+  </si>
+  <si>
+    <t>Alif</t>
+  </si>
+  <si>
+    <t>alifkhadaffa@gmail.com</t>
+  </si>
+  <si>
+    <t>Jl. Bukit Jarian No. 12</t>
+  </si>
+  <si>
+    <t>1 Jam</t>
+  </si>
+  <si>
+    <t>Hashrul</t>
+  </si>
+  <si>
+    <t>hasrulteuku@gmail.com</t>
+  </si>
+  <si>
+    <t>Jl. Bukit Resik No. 28</t>
+  </si>
+  <si>
+    <t>12 Jam</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>mothi_mothi@gmail.com</t>
+  </si>
+  <si>
+    <t>Jl. Rancabulan 1 No. 20</t>
+  </si>
+  <si>
+    <t>Naofal</t>
+  </si>
+  <si>
+    <t>naofalleoagusta@gmail.com</t>
+  </si>
+  <si>
+    <t>Jl. Bukit Indah 14 No. 202</t>
+  </si>
+  <si>
+    <t>All Day</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>samps98@gmail.com</t>
+  </si>
+  <si>
+    <t>Jl. Jurang No. 3</t>
+  </si>
+  <si>
+    <t>Jaya</t>
+  </si>
+  <si>
+    <t>anugrahjaya@gmail.com</t>
+  </si>
+  <si>
+    <t>Jl. Sukajadi No. 34</t>
+  </si>
+  <si>
+    <t>Alwan</t>
+  </si>
+  <si>
+    <t>alwanrizky@gmail.com</t>
+  </si>
+  <si>
+    <t>Jl. Cimahi No. 32</t>
+  </si>
+  <si>
+    <t>5 Jam</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>audiaqsha@gmail.com</t>
+  </si>
+  <si>
+    <t>Jl. Sadang Serang No. 33</t>
+  </si>
+  <si>
+    <t>Tuition Room</t>
+  </si>
+  <si>
+    <t>ID Pegawai</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
+  </si>
+  <si>
+    <t>AC, Projector, Snack and Drink</t>
+  </si>
+  <si>
+    <t>ID BARANG</t>
+  </si>
+  <si>
+    <t>ID RUANG</t>
+  </si>
+  <si>
+    <t>A Class Public Room</t>
+  </si>
+  <si>
+    <t>80.000/day/person</t>
+  </si>
+  <si>
+    <t>Manajer</t>
+  </si>
+  <si>
+    <t>saiiafira1</t>
+  </si>
+  <si>
+    <t>Jerapah12</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>raisA6690</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,7 +430,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -265,15 +453,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -586,350 +806,862 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A42" sqref="A42:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="2">
+        <v>87742036248</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>43476</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="5">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="2">
+        <v>87742036248</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="4">
+        <v>43755</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="5">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2">
+        <v>81224541830</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="4">
+        <v>43751</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="5">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="2">
+        <v>85639986247</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="4">
+        <v>43508</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="5">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8112342231</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="4">
+        <v>43520</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="5">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8975462135</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4">
+        <v>43520</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8122355567</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="4">
+        <v>43520</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="2">
+        <v>812232345</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="4">
+        <v>43520</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="2">
+        <v>87742120319</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="4">
+        <v>43522</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" s="5">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>59</v>
+      <c r="B39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="2">
+        <v>81264212228</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="4">
+        <v>43522</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="5">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2">
+        <v>87743553977</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2">
+        <v>87742036248</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="2">
+        <v>81262241982</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D30" r:id="rId1"/>
+    <hyperlink ref="D31" r:id="rId2"/>
+    <hyperlink ref="D32" r:id="rId3"/>
+    <hyperlink ref="D33" r:id="rId4"/>
+    <hyperlink ref="D34" r:id="rId5"/>
+    <hyperlink ref="D35" r:id="rId6"/>
+    <hyperlink ref="D36" r:id="rId7"/>
+    <hyperlink ref="D37" r:id="rId8"/>
+    <hyperlink ref="D38" r:id="rId9"/>
+    <hyperlink ref="D39" r:id="rId10"/>
+    <hyperlink ref="D42" r:id="rId11"/>
+    <hyperlink ref="D43" r:id="rId12"/>
+    <hyperlink ref="D44" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
--- a/DATA RUANGKU.xlsx
+++ b/DATA RUANGKU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gio\Desktop\mibd2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mibd2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
   <si>
     <t>NAMA RUANGAN</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Public Room</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>Library Room</t>
   </si>
   <si>
-    <t>AC, Books, Snack and Drink</t>
-  </si>
-  <si>
     <t>AC, Snack and Drink</t>
   </si>
   <si>
@@ -377,9 +371,6 @@
     <t>ID RUANG</t>
   </si>
   <si>
-    <t>A Class Public Room</t>
-  </si>
-  <si>
     <t>80.000/day/person</t>
   </si>
   <si>
@@ -399,6 +390,18 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>White Public Room</t>
+  </si>
+  <si>
+    <t>100pax</t>
+  </si>
+  <si>
+    <t>70pax</t>
+  </si>
+  <si>
+    <t>50pax</t>
   </si>
 </sst>
 </file>
@@ -808,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:F44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +830,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -853,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -870,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -884,13 +887,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -898,16 +901,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -915,13 +918,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -932,16 +935,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -949,13 +952,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -966,16 +969,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,16 +986,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,16 +1003,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,13 +1020,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
@@ -1034,16 +1037,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,16 +1054,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,13 +1071,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -1085,16 +1088,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1102,16 +1105,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1119,16 +1122,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1136,13 +1139,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
@@ -1150,16 +1153,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1167,13 +1170,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1181,13 +1184,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1195,13 +1198,13 @@
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1209,13 +1212,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1223,13 +1226,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1237,42 +1240,42 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1280,16 +1283,16 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2">
         <v>87742036248</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>5</v>
@@ -1298,7 +1301,7 @@
         <v>43476</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I30" s="5">
         <v>150000</v>
@@ -1309,25 +1312,25 @@
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2">
         <v>87742036248</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="G31" s="4">
         <v>43755</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I31" s="5">
         <v>280000</v>
@@ -1338,25 +1341,25 @@
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="2">
         <v>81224541830</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" s="4">
         <v>43751</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32" s="5">
         <v>80000</v>
@@ -1367,25 +1370,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="2">
         <v>85639986247</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" s="4">
         <v>43508</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I33" s="5">
         <v>170000</v>
@@ -1396,25 +1399,25 @@
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C34" s="2">
         <v>8112342231</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34" s="4">
         <v>43520</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I34" s="5">
         <v>120000</v>
@@ -1425,16 +1428,16 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C35" s="2">
         <v>8975462135</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1443,7 +1446,7 @@
         <v>43520</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I35" s="5">
         <v>100000</v>
@@ -1454,16 +1457,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" s="2">
         <v>8122355567</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1472,7 +1475,7 @@
         <v>43520</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I36" s="5">
         <v>100000</v>
@@ -1483,25 +1486,25 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2">
         <v>812232345</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="4">
         <v>43520</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I37" s="5">
         <v>100000</v>
@@ -1512,25 +1515,25 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2">
         <v>87742120319</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G38" s="4">
         <v>43522</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I38" s="5">
         <v>600000</v>
@@ -1541,25 +1544,25 @@
         <v>10</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" s="2">
         <v>81264212228</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="G39" s="4">
         <v>43522</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I39" s="5">
         <v>400000</v>
@@ -1567,22 +1570,22 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1590,19 +1593,19 @@
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2">
         <v>87743553977</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1610,19 +1613,19 @@
         <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E43" s="2">
         <v>87742036248</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1630,19 +1633,19 @@
         <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2">
         <v>81262241982</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
